--- a/input_data/input_data_2.xlsx
+++ b/input_data/input_data_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vttgroup-my.sharepoint.com/personal/dennis_sundell_vtt_fi1/Documents/Documents/HOPE/Predicer/input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="127" documentId="13_ncr:1_{A6342B90-F8EE-4C3F-8710-409C3F73327A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C211487-688B-4840-BCEC-AA2FA013DB33}"/>
+  <xr:revisionPtr revIDLastSave="239" documentId="13_ncr:1_{A6342B90-F8EE-4C3F-8710-409C3F73327A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD22C75B-BAD3-4388-AB1F-4C4CD305F426}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1800" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="16" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-28920" yWindow="-1800" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="2" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="57">
   <si>
     <t>node</t>
   </si>
@@ -113,9 +113,6 @@
     <t>ramp_up</t>
   </si>
   <si>
-    <t>spot</t>
-  </si>
-  <si>
     <t>source</t>
   </si>
   <si>
@@ -209,40 +206,22 @@
     <t>operator</t>
   </si>
   <si>
-    <t>ng, ALL</t>
-  </si>
-  <si>
     <t>residual_value</t>
   </si>
   <si>
     <t>elc1</t>
   </si>
   <si>
-    <t>npe1</t>
-  </si>
-  <si>
-    <t>npe2</t>
-  </si>
-  <si>
-    <t>elc2</t>
-  </si>
-  <si>
     <t>gt1</t>
   </si>
   <si>
-    <t>gt2</t>
-  </si>
-  <si>
     <t>spot1</t>
   </si>
   <si>
-    <t>spot2</t>
-  </si>
-  <si>
-    <t>npe1,s1</t>
-  </si>
-  <si>
-    <t>npe2,s1</t>
+    <t>npe,s1</t>
+  </si>
+  <si>
+    <t>ng, s1</t>
   </si>
 </sst>
 </file>
@@ -626,7 +605,7 @@
   <dimension ref="A1:A49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A32"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -636,7 +615,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -650,9 +629,7 @@
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
-        <v>44671.08333321759</v>
-      </c>
+      <c r="A4" s="7"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
@@ -799,7 +776,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C30"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -809,10 +786,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -834,12 +811,9 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+      <c r="A4" s="7" t="str">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v>44671.08333321759</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -993,72 +967,56 @@
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="6">
         <v>0</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
@@ -1081,10 +1039,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6DDD9A-EF34-4108-8532-230729E9C708}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:D32"/>
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1094,18 +1052,15 @@
     <col min="6" max="13" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -1113,11 +1068,8 @@
       <c r="B2">
         <v>10</v>
       </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -1125,89 +1077,80 @@
       <c r="B3">
         <v>10</v>
       </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="str">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v>44671.08333321759</v>
-      </c>
-      <c r="B4">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="str">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
@@ -1278,7 +1221,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B7"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1288,15 +1231,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2">
         <v>0.1</v>
@@ -1304,10 +1247,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,22 +1263,22 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1361,7 +1304,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1379,9 +1322,9 @@
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+      <c r="A4" s="7" t="str">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v>44671.08333321759</v>
+        <v/>
       </c>
       <c r="B4" s="2"/>
     </row>
@@ -1535,7 +1478,7 @@
   <sheetData>
     <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -1551,9 +1494,9 @@
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+      <c r="A4" s="7" t="str">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v>44671.08333321759</v>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
@@ -1692,7 +1635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5704FC51-737E-45F9-9A9E-85A96AFE5439}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -1705,10 +1648,10 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -1740,7 +1683,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -1756,9 +1699,9 @@
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+      <c r="A4" s="7" t="str">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v>44671.08333321759</v>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
@@ -1907,7 +1850,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -1923,9 +1866,9 @@
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+      <c r="A4" s="7" t="str">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v>44671.08333321759</v>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
@@ -2061,10 +2004,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A1B16B-CDA9-46BD-BA51-731AA9327652}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2091,7 +2034,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>6</v>
@@ -2109,13 +2052,13 @@
         <v>5</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -2158,13 +2101,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B3" s="6">
         <v>0</v>
       </c>
       <c r="C3" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
@@ -2176,13 +2119,13 @@
         <v>0</v>
       </c>
       <c r="G3" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H3" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I3" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J3" s="6">
         <v>0</v>
@@ -2196,31 +2139,31 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="B4" s="6">
         <v>0</v>
       </c>
       <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="D4" s="6">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
       <c r="F4" s="6">
         <v>0</v>
       </c>
       <c r="G4" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H4" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I4" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J4" s="6">
         <v>0</v>
@@ -2229,97 +2172,34 @@
         <v>0</v>
       </c>
       <c r="L4" s="6">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="6">
-        <v>0</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0</v>
-      </c>
-      <c r="K5" s="6">
-        <v>0</v>
-      </c>
-      <c r="L5" s="6">
-        <v>0</v>
-      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="6">
-        <v>0</v>
-      </c>
-      <c r="L6" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2328,10 +2208,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB20090B-02A9-43B7-8D03-9C18D42920EB}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2356,13 +2236,13 @@
         <v>11</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>15</v>
@@ -2377,21 +2257,21 @@
         <v>16</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B2" s="6">
         <v>0</v>
@@ -2433,7 +2313,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B3" s="6">
         <v>0</v>
@@ -2448,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3" s="6">
         <v>1</v>
@@ -2474,118 +2354,19 @@
       <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="6">
-        <v>0</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6">
-        <v>3</v>
-      </c>
-      <c r="G4" s="6">
-        <v>1</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6">
-        <v>1</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0</v>
-      </c>
-      <c r="K4" s="6">
-        <v>0</v>
-      </c>
-      <c r="L4" s="6">
-        <v>0</v>
-      </c>
-      <c r="M4" s="6">
-        <v>0</v>
-      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
       <c r="N4" s="6"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="6">
-        <v>0</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>3</v>
-      </c>
-      <c r="G5" s="6">
-        <v>1</v>
-      </c>
-      <c r="H5" s="6">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6">
-        <v>1</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0</v>
-      </c>
-      <c r="K5" s="6">
-        <v>0</v>
-      </c>
-      <c r="L5" s="6">
-        <v>0</v>
-      </c>
-      <c r="M5" s="6">
-        <v>0</v>
-      </c>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2653,10 +2434,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A86A8A7-FD76-4891-A53C-CBB095359118}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2677,19 +2458,19 @@
         <v>10</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>19</v>
@@ -2698,15 +2479,15 @@
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>7</v>
@@ -2732,13 +2513,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D3" s="8">
         <v>1</v>
@@ -2761,19 +2542,19 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D4" s="8">
         <v>1</v>
       </c>
       <c r="E4" s="8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F4" s="8">
         <v>0</v>
@@ -2790,22 +2571,22 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="D5" s="8">
         <v>1</v>
       </c>
       <c r="E5" s="8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F5" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="8">
         <v>1</v>
@@ -2814,122 +2595,6 @@
         <v>1</v>
       </c>
       <c r="I5" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="8">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0</v>
-      </c>
-      <c r="F6" s="8">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8">
-        <v>1</v>
-      </c>
-      <c r="H6" s="8">
-        <v>1</v>
-      </c>
-      <c r="I6" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="8">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8">
-        <v>0</v>
-      </c>
-      <c r="F7" s="8">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8">
-        <v>1</v>
-      </c>
-      <c r="H7" s="8">
-        <v>1</v>
-      </c>
-      <c r="I7" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="8">
-        <v>1</v>
-      </c>
-      <c r="H8" s="8">
-        <v>1</v>
-      </c>
-      <c r="I8" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="8">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8">
-        <v>0</v>
-      </c>
-      <c r="F9" s="8">
-        <v>0</v>
-      </c>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
-      <c r="H9" s="8">
-        <v>1</v>
-      </c>
-      <c r="I9" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2954,7 +2619,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -2970,9 +2635,9 @@
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+      <c r="A4" s="7" t="str">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v>44671.08333321759</v>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
@@ -3118,10 +2783,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -3146,7 +2811,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F1"/>
     </row>
@@ -3165,9 +2830,9 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+      <c r="A4" s="7" t="str">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v>44671.08333321759</v>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -3320,7 +2985,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -3340,9 +3005,9 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+      <c r="A4" s="7" t="str">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v>44671.08333321759</v>
+        <v/>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>

--- a/input_data/input_data_2.xlsx
+++ b/input_data/input_data_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vttgroup-my.sharepoint.com/personal/dennis_sundell_vtt_fi1/Documents/Documents/HOPE/Predicer/input_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="239" documentId="13_ncr:1_{A6342B90-F8EE-4C3F-8710-409C3F73327A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD22C75B-BAD3-4388-AB1F-4C4CD305F426}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF4BF5C-D6CC-42AB-9621-8F020BE5BBB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1800" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="2" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" activeTab="1" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -25,13 +25,14 @@
     <sheet name="price" sheetId="4" r:id="rId10"/>
     <sheet name="markets" sheetId="5" r:id="rId11"/>
     <sheet name="market_prices" sheetId="8" r:id="rId12"/>
-    <sheet name="risk" sheetId="17" r:id="rId13"/>
-    <sheet name="scenarios" sheetId="9" r:id="rId14"/>
-    <sheet name="fixed_ts" sheetId="11" r:id="rId15"/>
-    <sheet name="eff_ts" sheetId="12" r:id="rId16"/>
-    <sheet name="constraints" sheetId="14" r:id="rId17"/>
-    <sheet name="gen_constraint" sheetId="15" r:id="rId18"/>
-    <sheet name="cap_ts" sheetId="16" r:id="rId19"/>
+    <sheet name="balance_prices" sheetId="20" r:id="rId13"/>
+    <sheet name="risk" sheetId="17" r:id="rId14"/>
+    <sheet name="scenarios" sheetId="9" r:id="rId15"/>
+    <sheet name="fixed_ts" sheetId="11" r:id="rId16"/>
+    <sheet name="eff_ts" sheetId="12" r:id="rId17"/>
+    <sheet name="constraints" sheetId="14" r:id="rId18"/>
+    <sheet name="gen_constraint" sheetId="15" r:id="rId19"/>
+    <sheet name="cap_ts" sheetId="16" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
   <si>
     <t>node</t>
   </si>
@@ -74,15 +75,9 @@
     <t>is_market</t>
   </si>
   <si>
-    <t>ng</t>
-  </si>
-  <si>
     <t>is_inflow</t>
   </si>
   <si>
-    <t>npe</t>
-  </si>
-  <si>
     <t>process</t>
   </si>
   <si>
@@ -140,15 +135,9 @@
     <t>type</t>
   </si>
   <si>
-    <t>energy</t>
-  </si>
-  <si>
     <t>direction</t>
   </si>
   <si>
-    <t>none</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -209,19 +198,16 @@
     <t>residual_value</t>
   </si>
   <si>
-    <t>elc1</t>
-  </si>
-  <si>
-    <t>gt1</t>
-  </si>
-  <si>
-    <t>spot1</t>
-  </si>
-  <si>
-    <t>npe,s1</t>
-  </si>
-  <si>
-    <t>ng, s1</t>
+    <t>delay_p</t>
+  </si>
+  <si>
+    <t>res11</t>
+  </si>
+  <si>
+    <t>res21</t>
+  </si>
+  <si>
+    <t>res11,s1</t>
   </si>
 </sst>
 </file>
@@ -274,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -288,6 +274,16 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,7 +601,7 @@
   <dimension ref="A1:A49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -615,7 +611,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -629,7 +625,9 @@
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
+      <c r="A4" s="7">
+        <v>44671.08333321759</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
@@ -768,15 +766,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02307C1F-427B-487D-B703-EBF512D7AC27}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -784,105 +783,91 @@
     <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
-        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44670.958333391201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
         <v>44671</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
-        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
         <v>44671.041666666664</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="str">
-        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="str">
-        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="str">
-        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>44671.08333321759</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>44672.083333159724</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
@@ -944,6 +929,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -952,7 +938,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -967,49 +953,33 @@
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="6">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
@@ -1034,15 +1004,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6DDD9A-EF34-4108-8532-230729E9C708}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1052,105 +1023,91 @@
     <col min="6" max="13" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
-        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44670.958333391201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
         <v>44671</v>
       </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
-        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
         <v>44671.041666666664</v>
       </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="str">
-        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="str">
-        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="str">
-        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>44671.08333321759</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>44672.083333159724</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
@@ -1213,15 +1170,216 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A81A02F-A6D9-4132-87B7-A70F010CF841}">
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="7" width="11.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44671.041666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>44671.08333321759</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="str">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="str">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="str">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="str">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="str">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="str">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="str">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="str">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="str">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="str">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="str">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="str">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="str">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="str">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="str">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="str">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="str">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="str">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="str">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="str">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="str">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="str">
+        <f>IF(timeseries!A26&lt;&gt;"",timeseries!A26,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="str">
+        <f>IF(timeseries!A27&lt;&gt;"",timeseries!A27,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="str">
+        <f>IF(timeseries!A28&lt;&gt;"",timeseries!A28,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="str">
+        <f>IF(timeseries!A29&lt;&gt;"",timeseries!A29,"")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9314D326-256A-435C-AAE3-3517FA836EAE}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1231,15 +1389,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B2">
         <v>0.1</v>
@@ -1247,7 +1405,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1255,30 +1413,31 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87AD413-E614-48C1-80E1-F1E8236FCBC6}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1286,15 +1445,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31679CA5-0AA2-4F6F-8223-14BF74917F04}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1304,7 +1464,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1322,9 +1482,9 @@
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="str">
+      <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v/>
+        <v>44671.08333321759</v>
       </c>
       <c r="B4" s="2"/>
     </row>
@@ -1460,15 +1620,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD670E02-665B-45B8-BC4E-9596D2C1BC55}">
   <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T47" sqref="T47"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1478,7 +1639,7 @@
   <sheetData>
     <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -1494,9 +1655,9 @@
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="str">
+      <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v/>
+        <v>44671.08333321759</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
@@ -1628,15 +1789,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5704FC51-737E-45F9-9A9E-85A96AFE5439}">
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1648,10 +1810,10 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -1665,25 +1827,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12AB76-2BDA-4ACA-A128-8CFB9FB6C8F8}">
   <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M29" sqref="B1:M29"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
-    <col min="2" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="5.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -1699,9 +1861,9 @@
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="str">
+      <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v/>
+        <v>44671.08333321759</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
@@ -1832,187 +1994,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FEDBA5-B0F3-4E9D-9367-08D5F5FA8AEA}">
-  <dimension ref="A1:A25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="B1:G28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
-        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
-        <v>44671</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
-        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
-        <v>44671.041666666664</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="str">
-        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="str">
-        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="str">
-        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="str">
-        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="str">
-        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="str">
-        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="str">
-        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="str">
-        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="str">
-        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="str">
-        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="str">
-        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="str">
-        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="str">
-        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="str">
-        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="str">
-        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="str">
-        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="str">
-        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="str">
-        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="str">
-        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="str">
-        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="str">
-        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="str">
-        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A1B16B-CDA9-46BD-BA51-731AA9327652}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
@@ -2034,13 +2030,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>3</v>
@@ -2052,21 +2048,21 @@
         <v>5</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="B2" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
@@ -2078,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2101,13 +2097,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3" s="6">
         <v>0</v>
       </c>
       <c r="C3" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
@@ -2119,13 +2115,13 @@
         <v>0</v>
       </c>
       <c r="G3" s="6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H3" s="6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I3" s="6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J3" s="6">
         <v>0</v>
@@ -2138,42 +2134,17 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="6">
-        <v>0</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0</v>
-      </c>
-      <c r="K4" s="6">
-        <v>0</v>
-      </c>
-      <c r="L4" s="6">
-        <v>0</v>
-      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" s="6"/>
@@ -2188,21 +2159,177 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FEDBA5-B0F3-4E9D-9367-08D5F5FA8AEA}">
+  <dimension ref="A1:A25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44671.041666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>44671.08333321759</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="str">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="str">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="str">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="str">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="str">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="str">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="str">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="str">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="str">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="str">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="str">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="str">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="str">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="str">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="str">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="str">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="str">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="str">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="str">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="str">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="str">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2210,8 +2337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB20090B-02A9-43B7-8D03-9C18D42920EB}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2226,150 +2353,116 @@
     <col min="9" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>42</v>
+      <c r="N1" s="11" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="6">
+        <v>48</v>
+      </c>
+      <c r="B2" s="9">
         <v>0</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="9">
         <v>0</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="9">
         <v>0</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="9">
         <v>0</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="9">
         <v>1</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="9">
         <v>1</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="9">
         <v>0</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="9">
         <v>1</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="9">
         <v>0</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="9">
         <v>0</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="9">
         <v>0</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="9">
         <v>0</v>
       </c>
-      <c r="N2" s="6"/>
+      <c r="N2" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="6">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6">
-        <v>3</v>
-      </c>
-      <c r="G3" s="6">
-        <v>1</v>
-      </c>
-      <c r="H3" s="6">
-        <v>0</v>
-      </c>
-      <c r="I3" s="6">
-        <v>1</v>
-      </c>
-      <c r="J3" s="6">
-        <v>0</v>
-      </c>
-      <c r="K3" s="6">
-        <v>0</v>
-      </c>
-      <c r="L3" s="6">
-        <v>0</v>
-      </c>
-      <c r="M3" s="6">
-        <v>0</v>
-      </c>
-      <c r="N3" s="6"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
+      <c r="G4" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2385,7 +2478,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" s="3">
         <v>1</v>
@@ -2429,22 +2522,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A86A8A7-FD76-4891-A53C-CBB095359118}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.6640625" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.44140625" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.109375" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.109375" style="8" bestFit="1" customWidth="1"/>
@@ -2453,53 +2547,50 @@
     <col min="9" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="C2" s="8" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="D2" s="8">
         <v>1</v>
       </c>
       <c r="E2" s="8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F2" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="8">
         <v>1</v>
@@ -2507,25 +2598,22 @@
       <c r="H2" s="8">
         <v>1</v>
       </c>
-      <c r="I2" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D3" s="8">
         <v>1</v>
       </c>
       <c r="E3" s="8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F3" s="8">
         <v>0</v>
@@ -2536,69 +2624,9 @@
       <c r="H3" s="8">
         <v>1</v>
       </c>
-      <c r="I3" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="8">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8">
-        <v>1</v>
-      </c>
-      <c r="H4" s="8">
-        <v>1</v>
-      </c>
-      <c r="I4" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="8">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8">
-        <v>1</v>
-      </c>
-      <c r="H5" s="8">
-        <v>1</v>
-      </c>
-      <c r="I5" s="8">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2619,7 +2647,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -2635,9 +2663,9 @@
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="str">
+      <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v/>
+        <v>44671.08333321759</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
@@ -2768,6 +2796,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2776,21 +2805,22 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="A2:D2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2799,7 +2829,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="B1:F30"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2811,40 +2841,35 @@
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
-        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
-        <v>44671</v>
+        <v>44670.958333391201</v>
       </c>
       <c r="F2" s="7"/>
       <c r="L2" s="7"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
-        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44671</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="str">
-        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v/>
-      </c>
-    </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="str">
-        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v/>
+      <c r="A5" s="7">
+        <v>44671.08333321759</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="str">
-        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v/>
+      <c r="A6" s="7">
+        <v>44672.083333159724</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -2970,10 +2995,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F87DD44-A1AD-4241-AED7-C48CC9DEE2E2}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="B1:I25"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2985,52 +3010,59 @@
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
-        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44670.958333391201</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
         <v>44671</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
-        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+      <c r="B3" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
         <v>44671.041666666664</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="str">
-        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v/>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="B4" s="12">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="str">
-        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v/>
+      <c r="A5" s="7">
+        <v>44671.08333321759</v>
+      </c>
+      <c r="B5" s="12">
+        <v>4</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="str">
-        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v/>
+      <c r="A6" s="7">
+        <v>44672.083333159724</v>
+      </c>
+      <c r="B6" s="12">
+        <v>5</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="str">
-        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
       <c r="F7" s="2"/>
@@ -3038,7 +3070,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="str">
-        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
       <c r="F8" s="2"/>
@@ -3046,7 +3078,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
-        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
       <c r="F9" s="2"/>
@@ -3054,7 +3086,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="str">
-        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
       <c r="F10" s="2"/>
@@ -3062,7 +3094,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="str">
-        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
       <c r="F11" s="2"/>
@@ -3070,7 +3102,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="str">
-        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
       <c r="F12" s="2"/>
@@ -3078,7 +3110,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="str">
-        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
       <c r="F13" s="2"/>
@@ -3086,7 +3118,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="str">
-        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
       <c r="F14" s="2"/>
@@ -3094,7 +3126,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="str">
-        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
       <c r="F15" s="2"/>
@@ -3102,7 +3134,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="str">
-        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
       <c r="F16" s="2"/>
@@ -3110,7 +3142,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="str">
-        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
       <c r="F17" s="2"/>
@@ -3118,7 +3150,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="str">
-        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
       <c r="F18" s="2"/>
@@ -3126,7 +3158,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="str">
-        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
       <c r="F19" s="2"/>
@@ -3134,7 +3166,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="str">
-        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
       <c r="F20" s="2"/>
@@ -3142,7 +3174,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="str">
-        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
       <c r="F21" s="2"/>
@@ -3150,7 +3182,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="str">
-        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
       <c r="F22" s="2"/>
@@ -3158,7 +3190,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="str">
-        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
       <c r="F23" s="2"/>
@@ -3166,7 +3198,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="str">
-        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
       <c r="F24" s="2"/>
@@ -3174,11 +3206,31 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="str">
-        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="str">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v/>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="str">
+        <f>IF(timeseries!A26&lt;&gt;"",timeseries!A26,"")</f>
+        <v/>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/input_data/input_data_2.xlsx
+++ b/input_data/input_data_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF4BF5C-D6CC-42AB-9621-8F020BE5BBB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D79C0F8-4C56-42AD-BC98-997CD2E97BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" activeTab="1" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28440" tabRatio="796" activeTab="2" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
   <si>
     <t>node</t>
   </si>
@@ -208,6 +208,12 @@
   </si>
   <si>
     <t>res11,s1</t>
+  </si>
+  <si>
+    <t>max_online</t>
+  </si>
+  <si>
+    <t>max_offline</t>
   </si>
 </sst>
 </file>
@@ -604,164 +610,164 @@
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
     </row>
   </sheetData>
@@ -778,150 +784,150 @@
       <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>44670.958333391201</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>44671</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>44672.083333159724</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -941,17 +947,17 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -974,28 +980,28 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1016,152 +1022,152 @@
       <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
-    <col min="2" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="13" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="2" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="13" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>44670.958333391201</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>44671</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>44672.083333159724</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1182,14 +1188,14 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="7" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="7" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -1200,169 +1206,169 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="str">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="str">
         <f>IF(timeseries!A26&lt;&gt;"",timeseries!A26,"")</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="str">
         <f>IF(timeseries!A27&lt;&gt;"",timeseries!A27,"")</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="str">
         <f>IF(timeseries!A28&lt;&gt;"",timeseries!A28,"")</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="str">
         <f>IF(timeseries!A29&lt;&gt;"",timeseries!A29,"")</f>
         <v/>
@@ -1382,12 +1388,12 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>40</v>
       </c>
@@ -1395,7 +1401,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -1403,7 +1409,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -1425,9 +1431,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
@@ -1435,7 +1441,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -1457,162 +1463,162 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="str">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v/>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1632,155 +1638,155 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="str">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1801,14 +1807,14 @@
       <selection activeCell="B2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -1816,7 +1822,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -1835,158 +1841,158 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
-    <col min="2" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="2" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="str">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2002,24 +2008,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A1B16B-CDA9-46BD-BA51-731AA9327652}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="K1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2057,7 +2063,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -2095,7 +2101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -2133,7 +2139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -2146,7 +2152,7 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -2173,155 +2179,155 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="str">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2335,28 +2341,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB20090B-02A9-43B7-8D03-9C18D42920EB}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" style="10"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.42578125" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -2394,13 +2401,19 @@
         <v>34</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -2440,11 +2453,17 @@
       <c r="M2" s="9">
         <v>0</v>
       </c>
-      <c r="N2" s="10">
+      <c r="N2" s="9">
+        <v>0</v>
+      </c>
+      <c r="O2" s="9">
+        <v>0</v>
+      </c>
+      <c r="P2" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -2456,8 +2475,10 @@
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G4" s="9"/>
     </row>
   </sheetData>
@@ -2474,9 +2495,9 @@
       <selection activeCell="H7" sqref="A2:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -2534,20 +2555,20 @@
       <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="8"/>
+    <col min="1" max="1" width="7.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -2573,7 +2594,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>48</v>
       </c>
@@ -2599,7 +2620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>48</v>
       </c>
@@ -2640,155 +2661,155 @@
       <selection activeCell="D2" sqref="B1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="str">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2808,9 +2829,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
@@ -2832,155 +2853,155 @@
       <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>44670.958333391201</v>
       </c>
       <c r="F2" s="7"/>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>44671</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>44672.083333159724</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -3001,14 +3022,14 @@
       <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
-    <col min="4" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="4" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -3016,7 +3037,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>44670.958333391201</v>
       </c>
@@ -3024,7 +3045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>44671</v>
       </c>
@@ -3032,7 +3053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>44671.041666666664</v>
       </c>
@@ -3040,7 +3061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>44671.08333321759</v>
       </c>
@@ -3050,7 +3071,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>44672.083333159724</v>
       </c>
@@ -3060,7 +3081,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
@@ -3068,7 +3089,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
@@ -3076,7 +3097,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
@@ -3084,7 +3105,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
@@ -3092,7 +3113,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
@@ -3100,7 +3121,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
@@ -3108,7 +3129,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
@@ -3116,7 +3137,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
@@ -3124,7 +3145,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
@@ -3132,7 +3153,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
@@ -3140,7 +3161,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
@@ -3148,7 +3169,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
@@ -3156,7 +3177,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
@@ -3164,7 +3185,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
@@ -3172,7 +3193,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
@@ -3180,7 +3201,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
@@ -3188,7 +3209,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
@@ -3196,7 +3217,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
@@ -3204,7 +3225,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
@@ -3212,7 +3233,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -3220,7 +3241,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="str">
         <f>IF(timeseries!A26&lt;&gt;"",timeseries!A26,"")</f>
         <v/>
@@ -3228,7 +3249,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>

--- a/input_data/input_data_2.xlsx
+++ b/input_data/input_data_2.xlsx
@@ -5,34 +5,35 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer_dev\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D79C0F8-4C56-42AD-BC98-997CD2E97BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F4860A-02D1-4835-94D2-E7B946121E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28440" tabRatio="796" activeTab="2" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" activeTab="3" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
     <sheet name="nodes" sheetId="1" r:id="rId2"/>
     <sheet name="processes" sheetId="2" r:id="rId3"/>
-    <sheet name="efficiencies" sheetId="10" r:id="rId4"/>
-    <sheet name="process_topology" sheetId="6" r:id="rId5"/>
-    <sheet name="node_history" sheetId="19" r:id="rId6"/>
-    <sheet name="reserve_type" sheetId="13" r:id="rId7"/>
-    <sheet name="cf" sheetId="7" r:id="rId8"/>
-    <sheet name="inflow" sheetId="3" r:id="rId9"/>
-    <sheet name="price" sheetId="4" r:id="rId10"/>
-    <sheet name="markets" sheetId="5" r:id="rId11"/>
-    <sheet name="market_prices" sheetId="8" r:id="rId12"/>
-    <sheet name="balance_prices" sheetId="20" r:id="rId13"/>
-    <sheet name="risk" sheetId="17" r:id="rId14"/>
-    <sheet name="scenarios" sheetId="9" r:id="rId15"/>
-    <sheet name="fixed_ts" sheetId="11" r:id="rId16"/>
-    <sheet name="eff_ts" sheetId="12" r:id="rId17"/>
-    <sheet name="constraints" sheetId="14" r:id="rId18"/>
-    <sheet name="gen_constraint" sheetId="15" r:id="rId19"/>
-    <sheet name="cap_ts" sheetId="16" r:id="rId20"/>
+    <sheet name="groups" sheetId="21" r:id="rId4"/>
+    <sheet name="efficiencies" sheetId="10" r:id="rId5"/>
+    <sheet name="process_topology" sheetId="6" r:id="rId6"/>
+    <sheet name="node_history" sheetId="19" r:id="rId7"/>
+    <sheet name="reserve_type" sheetId="13" r:id="rId8"/>
+    <sheet name="cf" sheetId="7" r:id="rId9"/>
+    <sheet name="inflow" sheetId="3" r:id="rId10"/>
+    <sheet name="price" sheetId="4" r:id="rId11"/>
+    <sheet name="markets" sheetId="5" r:id="rId12"/>
+    <sheet name="market_prices" sheetId="8" r:id="rId13"/>
+    <sheet name="balance_prices" sheetId="20" r:id="rId14"/>
+    <sheet name="risk" sheetId="17" r:id="rId15"/>
+    <sheet name="scenarios" sheetId="9" r:id="rId16"/>
+    <sheet name="fixed_ts" sheetId="11" r:id="rId17"/>
+    <sheet name="eff_ts" sheetId="12" r:id="rId18"/>
+    <sheet name="constraints" sheetId="14" r:id="rId19"/>
+    <sheet name="gen_constraint" sheetId="15" r:id="rId20"/>
+    <sheet name="cap_ts" sheetId="16" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
   <si>
     <t>node</t>
   </si>
@@ -214,6 +215,12 @@
   </si>
   <si>
     <t>max_offline</t>
+  </si>
+  <si>
+    <t>entity</t>
+  </si>
+  <si>
+    <t>group</t>
   </si>
 </sst>
 </file>
@@ -610,164 +617,164 @@
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
     </row>
   </sheetData>
@@ -777,6 +784,252 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F87DD44-A1AD-4241-AED7-C48CC9DEE2E2}">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="4" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>44670.958333391201</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>44671</v>
+      </c>
+      <c r="B3" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>44671.041666666664</v>
+      </c>
+      <c r="B4" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>44671.08333321759</v>
+      </c>
+      <c r="B5" s="12">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>44672.083333159724</v>
+      </c>
+      <c r="B6" s="12">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="str">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v/>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="str">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v/>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="str">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v/>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="str">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v/>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="str">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v/>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="str">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v/>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="str">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v/>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="str">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v/>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="str">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v/>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="str">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v/>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="str">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v/>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="str">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v/>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="str">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v/>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="str">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v/>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="str">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v/>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="str">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v/>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="str">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v/>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="str">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v/>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="str">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v/>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="str">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v/>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="str">
+        <f>IF(timeseries!A26&lt;&gt;"",timeseries!A26,"")</f>
+        <v/>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02307C1F-427B-487D-B703-EBF512D7AC27}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -784,150 +1037,150 @@
       <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>44670.958333391201</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>44671</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>44672.083333159724</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -939,7 +1192,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3788A93-7501-4F5D-9E8F-38D329CC85EC}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -947,17 +1200,17 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -980,28 +1233,28 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1014,7 +1267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6DDD9A-EF34-4108-8532-230729E9C708}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -1022,152 +1275,152 @@
       <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
-    <col min="2" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="13" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="2" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="13" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>44670.958333391201</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>44671</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>44672.083333159724</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1180,7 +1433,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A81A02F-A6D9-4132-87B7-A70F010CF841}">
   <dimension ref="A1:G29"/>
   <sheetViews>
@@ -1188,14 +1441,14 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="7" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="7" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -1206,169 +1459,169 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="str">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="str">
         <f>IF(timeseries!A26&lt;&gt;"",timeseries!A26,"")</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="str">
         <f>IF(timeseries!A27&lt;&gt;"",timeseries!A27,"")</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="str">
         <f>IF(timeseries!A28&lt;&gt;"",timeseries!A28,"")</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="str">
         <f>IF(timeseries!A29&lt;&gt;"",timeseries!A29,"")</f>
         <v/>
@@ -1380,7 +1633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9314D326-256A-435C-AAE3-3517FA836EAE}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1388,12 +1641,12 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>40</v>
       </c>
@@ -1401,7 +1654,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -1409,7 +1662,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -1423,7 +1676,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87AD413-E614-48C1-80E1-F1E8236FCBC6}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1431,9 +1684,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
@@ -1441,7 +1694,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -1455,7 +1708,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31679CA5-0AA2-4F6F-8223-14BF74917F04}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -1463,162 +1716,162 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="str">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v/>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1630,7 +1883,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD670E02-665B-45B8-BC4E-9596D2C1BC55}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -1638,155 +1891,155 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="str">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1799,7 +2052,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5704FC51-737E-45F9-9A9E-85A96AFE5439}">
   <dimension ref="A1:M9"/>
   <sheetViews>
@@ -1807,14 +2060,14 @@
       <selection activeCell="B2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -1822,7 +2075,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -1830,177 +2083,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12AB76-2BDA-4ACA-A128-8CFB9FB6C8F8}">
-  <dimension ref="A1:A25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
-    <col min="2" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
-        <v>44671</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
-        <v>44671.041666666664</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v>44671.08333321759</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="str">
-        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="str">
-        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="str">
-        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="str">
-        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="str">
-        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="str">
-        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="str">
-        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="str">
-        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="str">
-        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="str">
-        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="str">
-        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="str">
-        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="str">
-        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="str">
-        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="str">
-        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="str">
-        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="str">
-        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="str">
-        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="str">
-        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="str">
-        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="str">
-        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2012,20 +2094,20 @@
       <selection activeCell="L1" sqref="K1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2063,7 +2145,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -2101,7 +2183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -2139,7 +2221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -2152,7 +2234,7 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -2172,6 +2254,177 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12AB76-2BDA-4ACA-A128-8CFB9FB6C8F8}">
+  <dimension ref="A1:A25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="2" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="5.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44671.041666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>44671.08333321759</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="str">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="str">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="str">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="str">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="str">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="str">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="str">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="str">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="str">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="str">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="str">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="str">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="str">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="str">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="str">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="str">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="str">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="str">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="str">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="str">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="str">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FEDBA5-B0F3-4E9D-9367-08D5F5FA8AEA}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -2179,155 +2432,155 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="str">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2343,27 +2596,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB20090B-02A9-43B7-8D03-9C18D42920EB}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.42578125" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" style="10"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.44140625" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -2413,7 +2666,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -2463,7 +2716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -2478,7 +2731,7 @@
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="G4" s="9"/>
     </row>
   </sheetData>
@@ -2488,6 +2741,32 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4193CA04-56AB-427B-814B-397AAF4F6311}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB1106B-D567-41FC-8E91-2B4CC5EC9B59}">
   <dimension ref="A1:K1"/>
   <sheetViews>
@@ -2495,9 +2774,9 @@
       <selection activeCell="H7" sqref="A2:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -2547,7 +2826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A86A8A7-FD76-4891-A53C-CBB095359118}">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -2555,20 +2834,20 @@
       <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="7.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -2594,7 +2873,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>48</v>
       </c>
@@ -2620,7 +2899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>48</v>
       </c>
@@ -2653,7 +2932,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AEF404-3743-47D7-AC45-7AE3A9FB796E}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -2661,155 +2940,155 @@
       <selection activeCell="D2" sqref="B1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="str">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2821,7 +3100,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0532F8A-0FB4-47AD-98A1-4065D3376432}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -2829,9 +3108,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
@@ -2845,7 +3124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A4637A-7829-48D6-AE54-2E654AB1A427}">
   <dimension ref="A1:L25"/>
   <sheetViews>
@@ -2853,405 +3132,159 @@
       <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>44670.958333391201</v>
       </c>
       <c r="F2" s="7"/>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>44671</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>44672.083333159724</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
       </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F87DD44-A1AD-4241-AED7-C48CC9DEE2E2}">
-  <dimension ref="A1:G28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
-    <col min="4" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>44670.958333391201</v>
-      </c>
-      <c r="B2" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>44671</v>
-      </c>
-      <c r="B3" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>44671.041666666664</v>
-      </c>
-      <c r="B4" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>44671.08333321759</v>
-      </c>
-      <c r="B5" s="12">
-        <v>4</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>44672.083333159724</v>
-      </c>
-      <c r="B6" s="12">
-        <v>5</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="str">
-        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v/>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="str">
-        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
-        <v/>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="str">
-        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v/>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="str">
-        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v/>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="str">
-        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v/>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="str">
-        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v/>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="str">
-        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
-        <v/>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="str">
-        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
-        <v/>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="str">
-        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
-        <v/>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="str">
-        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
-        <v/>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="str">
-        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
-        <v/>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="str">
-        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
-        <v/>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="str">
-        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
-        <v/>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="str">
-        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
-        <v/>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="str">
-        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
-        <v/>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="str">
-        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
-        <v/>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="str">
-        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
-        <v/>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="str">
-        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
-        <v/>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="str">
-        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
-        <v/>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="str">
-        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
-        <v/>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="str">
-        <f>IF(timeseries!A26&lt;&gt;"",timeseries!A26,"")</f>
-        <v/>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
